--- a/RodriguesDaudt_etal_SDM_SWAO_Table_S1.xlsx
+++ b/RodriguesDaudt_etal_SDM_SWAO_Table_S1.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9264"/>
   </bookViews>
   <sheets>
     <sheet name="Table_S1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Table_S1!$A$1:$H$121</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -23,23 +26,1298 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>lucas</author>
+    <author>Lucas Rodrigues</author>
+  </authors>
+  <commentList>
+    <comment ref="D61" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>lucas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+modelagem terrestre de burrows</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D77" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>lucas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+não é modelagem de nicho</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D82" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>lucas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+fora do SWAO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D94" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucas Rodrigues:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Fora dos limites do SWAO</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D110" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Lucas Rodrigues:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+sem acesso/autor não respondeu
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Glossary</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="372">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Authors</t>
+  </si>
+  <si>
+    <t>Article Title</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Publication Year</t>
+  </si>
+  <si>
+    <t>WoS-Scopus</t>
+  </si>
+  <si>
+    <t>Muhling, BA; Lamkin, JT; Roffer, MA</t>
+  </si>
+  <si>
+    <t>Predicting the occurrence of Atlantic bluefin tuna (Thunnus thynnus) larvae in the northern Gulf of Mexico: building a classification model from archival data</t>
+  </si>
+  <si>
+    <t>FISHERIES OCEANOGRAPHY</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>WILEY</t>
+  </si>
+  <si>
+    <t>Taylor, NG; McAllister, MK; Lawson, GL; Carruthers, T; Block, BA</t>
+  </si>
+  <si>
+    <t>Atlantic Bluefin Tuna: A Novel Multistock Spatial Model for Assessing Population Biomass</t>
+  </si>
+  <si>
+    <t>PLOS ONE</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PUBLIC LIBRARY SCIENCE</t>
+  </si>
+  <si>
+    <t>Hawkes, LA; Witt, MJ; Broderick, AC; Coker, JW; Coyne, MS; Dodd, M; Frick, MG; Godfrey, MH; Griffin, DB; Murphy, SR; Murphy, TM; Williams, KL; Godley, BJ</t>
+  </si>
+  <si>
+    <t>Home on the range: spatial ecology of loggerhead turtles in Atlantic waters of the USA</t>
+  </si>
+  <si>
+    <t>DIVERSITY AND DISTRIBUTIONS</t>
+  </si>
+  <si>
+    <t>Carranza, A; Defeo, O; Arim, M</t>
+  </si>
+  <si>
+    <t>Taxonomic relatedness and spatial structure of a shelf benthic gastropod assemblage</t>
+  </si>
+  <si>
+    <t>Yesson, C; Taylor, ML; Tittensor, DP; Davies, AJ; Guinotte, J; Baco, A; Black, J; Hall-Spencer, JM; Rogers, AD</t>
+  </si>
+  <si>
+    <t>Global habitat suitability of cold-water octocorals</t>
+  </si>
+  <si>
+    <t>JOURNAL OF BIOGEOGRAPHY</t>
+  </si>
+  <si>
+    <t>Johnston, MW; Purkis, SJ</t>
+  </si>
+  <si>
+    <t>Invasionsoft: A web-enabled tool for invasive species colonization predictions</t>
+  </si>
+  <si>
+    <t>AQUATIC INVASIONS</t>
+  </si>
+  <si>
+    <t>REGIONAL EURO-ASIAN BIOLOGICAL INVASIONS CENTRE-REABIC</t>
+  </si>
+  <si>
+    <t>Riul, P; Targino, CH; Junior, LAC; Creed, JC; Horta, PA; Costa, GC</t>
+  </si>
+  <si>
+    <t>Invasive potential of the coral Tubastraea coccinea in the southwest Atlantic</t>
+  </si>
+  <si>
+    <t>MARINE ECOLOGY PROGRESS SERIES</t>
+  </si>
+  <si>
+    <t>INTER-RESEARCH</t>
+  </si>
+  <si>
+    <t>Sillero, N; Carretero, MA</t>
+  </si>
+  <si>
+    <t>Modelling the past and future distribution of contracting species. The Iberian lizard Podarcis carbonelli (Squamata: Lacertidae) as a case study</t>
+  </si>
+  <si>
+    <t>ZOOLOGISCHER ANZEIGER</t>
+  </si>
+  <si>
+    <t>ELSEVIER GMBH</t>
+  </si>
+  <si>
+    <t>WoS</t>
+  </si>
+  <si>
+    <t>Mendoza-Becerril, MD; Marques, AC</t>
+  </si>
+  <si>
+    <t>Synopsis on the knowledge and distribution of the family Bougainvilliidae (Hydrozoa, Hydroidolina)</t>
+  </si>
+  <si>
+    <t>LATIN AMERICAN JOURNAL OF AQUATIC RESEARCH</t>
+  </si>
+  <si>
+    <t>UNIV CATOLICA DE VALPARAISO</t>
+  </si>
+  <si>
+    <t>Quillfeldt, P; Masello, JF; Navarro, J; Phillips, RA</t>
+  </si>
+  <si>
+    <t>Year-round distribution suggests spatial segregation of two small petrel species in the South Atlantic</t>
+  </si>
+  <si>
+    <t>Swannack, TM; Reif, M; Soniat, TM</t>
+  </si>
+  <si>
+    <t>A ROBUST, SPATIALLY EXPLICIT MODEL FOR IDENTIFYING OYSTER RESTORATION SITES: CASE STUDIES ON THE ATLANTIC AND GULF COASTS</t>
+  </si>
+  <si>
+    <t>JOURNAL OF SHELLFISH RESEARCH</t>
+  </si>
+  <si>
+    <t>NATL SHELLFISHERIES ASSOC</t>
+  </si>
+  <si>
+    <t>Putz, K; Trathan, PN; Pedrana, J; Collins, MA; Poncet, S; Luthi, B</t>
+  </si>
+  <si>
+    <t>Post-Fledging Dispersal of King Penguins (Aptenodytes patagonicus) from Two Breeding Sites in the South Atlantic</t>
+  </si>
+  <si>
+    <t>do Amaral, KB; Alvares, DJ; Heinzelmann, L; Borges-Martins, M; Siciliano, S; Moreno, IB</t>
+  </si>
+  <si>
+    <t>Ecological niche modeling of Stenella dolphins (Cetartiodactyla: Delphinidae) in the southwestern Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>JOURNAL OF EXPERIMENTAL MARINE BIOLOGY AND ECOLOGY</t>
+  </si>
+  <si>
+    <t>ELSEVIER SCIENCE BV</t>
+  </si>
+  <si>
+    <t>Seyboth, E; Groch, KR; Secchi, ER; Dalla Rosa, L</t>
+  </si>
+  <si>
+    <t>Habitat use by southern right whales, Eubalaena australis (Desmoulins, 1822), in their main northernmost calving area in the western South Atlantic</t>
+  </si>
+  <si>
+    <t>MARINE MAMMAL SCIENCE</t>
+  </si>
+  <si>
+    <t>Quillfeldt, P; Cherel, Y; Masello, JF; Delord, K; McGill, RAR; Furness, RW; Moodley, Y; Weimerskirch, H</t>
+  </si>
+  <si>
+    <t>Half a World Apart? Overlap in Nonbreeding Distributions of Atlantic and Indian Ocean Thin-Billed Prions</t>
+  </si>
+  <si>
+    <t>Saupe, EE; Qiao, HJ; Hendricks, JR; Portell, RW; Hunter, SJ; Soberon, J; Lieberman, BS</t>
+  </si>
+  <si>
+    <t>Niche breadth and geographic range size as determinants of species survival on geological time scales</t>
+  </si>
+  <si>
+    <t>GLOBAL ECOLOGY AND BIOGEOGRAPHY</t>
+  </si>
+  <si>
+    <t>Carlos, LA; Neves, DM; Barbosa, NPU; Moulton, TP; Creed, JC</t>
+  </si>
+  <si>
+    <t>Occurrence of an invasive coral in the southwest Atlantic and comparison with a congener suggest potential niche expansion</t>
+  </si>
+  <si>
+    <t>ECOLOGY AND EVOLUTION</t>
+  </si>
+  <si>
+    <t>Barroso, CX; Lotufo, TMD; Bezerra, LEA; Matthews-Cascon, H</t>
+  </si>
+  <si>
+    <t>A biogeographic approach to the insular marine 'prosobranch' gastropods from the southwestern Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>JOURNAL OF MOLLUSCAN STUDIES</t>
+  </si>
+  <si>
+    <t>OXFORD UNIV PRESS</t>
+  </si>
+  <si>
+    <t>Scopus</t>
+  </si>
+  <si>
+    <t>Rossi-Santos M.R., de Oliveira G.</t>
+  </si>
+  <si>
+    <t>Combining cetacean soundscape ecology and niche modeling to contribute in the mapping of the brazilian continental shelf</t>
+  </si>
+  <si>
+    <t>Coastal Research Library</t>
+  </si>
+  <si>
+    <t>Springer</t>
+  </si>
+  <si>
+    <t>Klippel, S; Amaral, S; Vinhas, L</t>
+  </si>
+  <si>
+    <t>Development and evaluation of species distribution models for five endangered elasmobranchs in southwestern Atlantic</t>
+  </si>
+  <si>
+    <t>HYDROBIOLOGIA</t>
+  </si>
+  <si>
+    <t>SPRINGER</t>
+  </si>
+  <si>
+    <t>Evangelista, PH; Young, NE; Schofield, PJ; Jarnevich, CS</t>
+  </si>
+  <si>
+    <t>Modeling suitable habitat of invasive red lionfish Pterois volitans (Linnaeus, 1758) in North and South America's coastal waters</t>
+  </si>
+  <si>
+    <t>Dellabianca, NA; Pierce, GJ; Rey, AR; Scioscia, G; Miller, DL; Torres, MA; Viola, MNP; Goodall, RNP; Schiavini, ACM</t>
+  </si>
+  <si>
+    <t>Spatial Models of Abundance and Habitat Preferences of Commerson's and Peale's Dolphin in Southern Patagonian Waters</t>
+  </si>
+  <si>
+    <t>Bortolotto, GA; Danilewicz, D; Andriolo, A; Secchi, ER; Zerbini, AN</t>
+  </si>
+  <si>
+    <t>Whale, Whale, Everywhere: Increasing Abundance of Western South Atlantic Humpback Whales (Megaptera novaeangliae) in Their Wintering Grounds</t>
+  </si>
+  <si>
+    <t>Carranza A., Martínez G., Arim M.</t>
+  </si>
+  <si>
+    <t>An endangered gigant marine gastropod: Adelomelon beckii (Broderip,1836) in Uruguayan waters</t>
+  </si>
+  <si>
+    <t>Pan-American Journal of Aquatic Sciences</t>
+  </si>
+  <si>
+    <t>Instituto de oceanografia</t>
+  </si>
+  <si>
+    <t>Kruger, L; Ramos, JA; Xavier, JC; Gremillet, D; Gonzalez-Solis, J; Kolbeinsson, Y; Militao, T; Navarro, J; Petry, MV; Phillips, RA; Ramirez, I; Reyes-Gonzalez, JM; Ryan, PG; Sigurdsson, IA; Van Sebille, E; Wanless, RM; Paiva, VH</t>
+  </si>
+  <si>
+    <t>Identification of candidate pelagic marine protected areas through a seabird seasonal-, multispecific- and extinction risk-based approach</t>
+  </si>
+  <si>
+    <t>ANIMAL CONSERVATION</t>
+  </si>
+  <si>
+    <t>Costa, TLA; Pennino, MG; Mendes, LF</t>
+  </si>
+  <si>
+    <t>Identifying ecological barriers in marine environment: The case study of Dasyatis marianae</t>
+  </si>
+  <si>
+    <t>MARINE ENVIRONMENTAL RESEARCH</t>
+  </si>
+  <si>
+    <t>ELSEVIER SCI LTD</t>
+  </si>
+  <si>
+    <t>Blanco, GS; Sanchez-Carnero, N; Pisoni, JP; Quintana, F</t>
+  </si>
+  <si>
+    <t>Seascape modeling of southern giant petrels from Patagonia during different life-cycles</t>
+  </si>
+  <si>
+    <t>MARINE BIOLOGY</t>
+  </si>
+  <si>
+    <t>SPRINGER HEIDELBERG</t>
+  </si>
+  <si>
+    <t>Bortolotto, GA; Danilewicz, D; Hammond, PS; Thomas, L; Zerbini, AN</t>
+  </si>
+  <si>
+    <t>Whale distribution in a breeding area: spatial models of habitat use and abundance of western South Atlantic humpback whales</t>
+  </si>
+  <si>
+    <t>Lathrop, RG; Niles, L; Smith, P; Peck, M; Dey, A; Sacatelli, R; Bognar, J</t>
+  </si>
+  <si>
+    <t>Mapping and modeling the breeding habitat of the Western Atlantic Red Knot (Calidris canutus rufa) at local and regional scales</t>
+  </si>
+  <si>
+    <t>CONDOR</t>
+  </si>
+  <si>
+    <t>OXFORD UNIV PRESS INC</t>
+  </si>
+  <si>
+    <t>Pavanato, HJ; Mayer, FP; Wedekin, LL; Engel, MH; Kinas, PG</t>
+  </si>
+  <si>
+    <t>Prediction of humpback whale group densities along the Brazilian coast using spatial autoregressive models</t>
+  </si>
+  <si>
+    <t>do Amaral, KB; Danilewicz, D; Zerbini, A; Di Beneditto, AP; Andriolo, A; Alvares, DJ; Secchi, E; Ferreira, E; Sucunza, F; Borges-Martins, M; Santos, MCD; Cremer, M; Denuncio, P; Ott, PH; Moreno, IB</t>
+  </si>
+  <si>
+    <t>Reassessment of the franciscana Pontoporia blainvillei (Gervais &amp; d'Orbigny, 1844) distribution and niche characteristics in Brazil</t>
+  </si>
+  <si>
+    <t>ELSEVIER</t>
+  </si>
+  <si>
+    <t>Crickenberger, S; Wethey, DS</t>
+  </si>
+  <si>
+    <t>Reproductive physiology, temperature and biogeography: the role of fertilization in determining the distribution of the barnacle Semibalanus balanoides</t>
+  </si>
+  <si>
+    <t>JOURNAL OF THE MARINE BIOLOGICAL ASSOCIATION OF THE UNITED KINGDOM</t>
+  </si>
+  <si>
+    <t>CAMBRIDGE UNIV PRESS</t>
+  </si>
+  <si>
+    <t>Zerbini, AN; Adams, G; Best, J; Clapham, PJ; Jackson, JA; Punt, AE</t>
+  </si>
+  <si>
+    <t>Assessing the recovery of an Antarctic predator from historical exploitation</t>
+  </si>
+  <si>
+    <t>ROYAL SOCIETY OPEN SCIENCE</t>
+  </si>
+  <si>
+    <t>ROYAL SOC</t>
+  </si>
+  <si>
+    <t>Despres, L; Henniaux, C; Rioux, D; Capblancq, T; Zupan, S; Celik, T; Sielezniew, M; Bonato, L; Ficetola, GF</t>
+  </si>
+  <si>
+    <t>Inferring the biogeography and demographic history of an endangered butterfly in Europe from multilocus markers</t>
+  </si>
+  <si>
+    <t>BIOLOGICAL JOURNAL OF THE LINNEAN SOCIETY</t>
+  </si>
+  <si>
+    <t>Clark, TJ; Matthiopoulos, J; Bonnet-Lebrun, AS; Campioni, L; Catry, P; Marengo, I; Poncet, S; Wakefield, E</t>
+  </si>
+  <si>
+    <t>Integrating habitat and partial survey data to estimate the regional population of a globally declining seabird species, the sooty shearwater</t>
+  </si>
+  <si>
+    <t>GLOBAL ECOLOGY AND CONSERVATION</t>
+  </si>
+  <si>
+    <t>Rolim, FA; Langlois, T; Rodrigues, PFC; Bond, T; Motta, FS; Neves, LM; Gadig, OBF</t>
+  </si>
+  <si>
+    <t>Network of small no-take marine reserves reveals greater abundance and body size of fisheries target species</t>
+  </si>
+  <si>
+    <t>Lopes, PFM; Verba, JT; Begossi, A; Pennino, MG</t>
+  </si>
+  <si>
+    <t>Predicting species distribution from fishers' local ecological knowledge: a new alternative for data-poor management</t>
+  </si>
+  <si>
+    <t>CANADIAN JOURNAL OF FISHERIES AND AQUATIC SCIENCES</t>
+  </si>
+  <si>
+    <t>CANADIAN SCIENCE PUBLISHING</t>
+  </si>
+  <si>
+    <t>Battini, N; Farias, N; Giachetti, CB; Schwindt, E; Bortolus, A</t>
+  </si>
+  <si>
+    <t>Staying ahead of invaders: using species distribution modeling to predict alien species' potential niche shifts</t>
+  </si>
+  <si>
+    <t>Reyes-Bonilla, H; Petatan-Ramirez, D</t>
+  </si>
+  <si>
+    <t>Areas susceptible to lionfish invasion in the Mexican Pacific</t>
+  </si>
+  <si>
+    <t>REVMAR-REVISTA CIENCIAS MARINAS Y COSTERAS</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>ASSOC NEUROLOGIA COGNITIVA &amp; COMPORTAMENTO</t>
+  </si>
+  <si>
+    <t>Derouen, ZC; Peterson, MR; Wang, HH; Grant, WE</t>
+  </si>
+  <si>
+    <t>Determinants of Tubastraea coccinea invasion and likelihood of further expansion in the northern Gulf of Mexico</t>
+  </si>
+  <si>
+    <t>MARINE BIODIVERSITY</t>
+  </si>
+  <si>
+    <t>Barbosa, RV; Davies, AJ; Sumida, PYG</t>
+  </si>
+  <si>
+    <t>Habitat suitability and environmental niche comparison of cold-water coral species along the Brazilian continental margin</t>
+  </si>
+  <si>
+    <t>DEEP-SEA RESEARCH PART I-OCEANOGRAPHIC RESEARCH PAPERS</t>
+  </si>
+  <si>
+    <t>PERGAMON-ELSEVIER SCIENCE LTD</t>
+  </si>
+  <si>
+    <t>Poursanidis, D; Kalogirou, S; Azzurro, E; Parravicini, V; Bariche, M; Dohna, HZ</t>
+  </si>
+  <si>
+    <t>Habitat suitability, niche unfilling and the potential spread of Pterois miles in the Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>MARINE POLLUTION BULLETIN</t>
+  </si>
+  <si>
+    <t>Petean, FF; Naylor, GJP; Lima, SMQ</t>
+  </si>
+  <si>
+    <t>Integrative taxonomy identifies a new stingray species of the genusHypanusRafinesque,1818(Dasyatidae, Myliobatiformes), from the Tropical Southwestern Atlantic</t>
+  </si>
+  <si>
+    <t>JOURNAL OF FISH BIOLOGY</t>
+  </si>
+  <si>
+    <t>Murillo, FJ; Weigel, B; Marmen, MB; Kenchington, E</t>
+  </si>
+  <si>
+    <t>Marine epibenthic functional diversity on Flemish Cap (north-west Atlantic)-Identifying trait responses to the environment and mapping ecosystem functions</t>
+  </si>
+  <si>
+    <t>Mbaye, B; Doniol-Valcroze, T; Brosset, P; Castonguay, M; Van Beveren, E; Smith, A; Lehoux, C; Brickman, D; Wang, ZL; Plourde, S</t>
+  </si>
+  <si>
+    <t>Modelling Atlantic mackerel spawning habitat suitability and its future distribution in the north-west Atlantic</t>
+  </si>
+  <si>
+    <t>Menezes, N; Sobral-Souza, T; Silva, M; Solferini, VN</t>
+  </si>
+  <si>
+    <t>Paleoclimatic distribution and phylogeography of Mussismilia braziliensis (Anthozoa, Scleractinia), an endemic Brazilian reef coral</t>
+  </si>
+  <si>
+    <t>Coelho, JFR; Lima, SMQ; Petean, FD</t>
+  </si>
+  <si>
+    <t>Phylogenetic conservatism of abiotic niche in sympatric Southwestern Atlantic skates</t>
+  </si>
+  <si>
+    <t>MARINE BIOLOGY RESEARCH</t>
+  </si>
+  <si>
+    <t>TAYLOR &amp; FRANCIS AS</t>
+  </si>
+  <si>
+    <t>Feitosa, LM; Martins, LP; de Souza, LA; Lessa, RP</t>
+  </si>
+  <si>
+    <t>Potential distribution and population trends of the smalltail shark Carcharhinus porosus inferred from species distribution models and historical catch data</t>
+  </si>
+  <si>
+    <t>AQUATIC CONSERVATION-MARINE AND FRESHWATER ECOSYSTEMS</t>
+  </si>
+  <si>
+    <t>De Wysiecki, AM; Sanchez-Carnero, N; Irigoyen, AJ; Milessi, AC; Colonello, JH; Bovcon, ND; Cortes, F; Barbini, SA; Cedrola, PV; Coller, NM; Jaureguizar, AJ</t>
+  </si>
+  <si>
+    <t>Using temporally explicit habitat suitability models to infer the migratory pattern of a large mobile shark</t>
+  </si>
+  <si>
+    <t>Derviche, P; Saucsen, A; Spier, D; Lana, P</t>
+  </si>
+  <si>
+    <t>Distribution patterns and habitat suitability of the non-native brittle star Ophiothela mirabilis Verrill, 1867 along the Western Atlantic</t>
+  </si>
+  <si>
+    <t>JOURNAL OF SEA RESEARCH</t>
+  </si>
+  <si>
+    <t>Castro, KL; Battini, N; Giachetti, CB; Trovant, B; Abelando, M; Basso, NG; Schwindt, E</t>
+  </si>
+  <si>
+    <t>Early detection of marine invasive species following the deployment of an artificial reef: Integrating tools to assist the decision-making process</t>
+  </si>
+  <si>
+    <t>JOURNAL OF ENVIRONMENTAL MANAGEMENT</t>
+  </si>
+  <si>
+    <t>ACADEMIC PRESS LTD- ELSEVIER SCIENCE LTD</t>
+  </si>
+  <si>
+    <t>Yankuo X., Linlong W., Min L., Linlin Z., Bin K.</t>
+  </si>
+  <si>
+    <t>Global prediction of spatial distribution and migratory corridors of green turtles based on species distribution modeling [基于物种分布模型的全球绿海龟空间分布及洄游廊道预测]</t>
+  </si>
+  <si>
+    <t>Journal of Fishery Sciences of China</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>Chinese Academy of Fishery Sciences</t>
+  </si>
+  <si>
+    <t>Alves, DFR; Barros-Alves, SD; Dolabella, SS; de Almeida, AC; Martinez, PA</t>
+  </si>
+  <si>
+    <t>Invasive shrimp Cinetorhynchus erythrostictus (Decapoda: Caridea) misidentified in the marine aquarium trade: Niche overlap with a native congeneric species</t>
+  </si>
+  <si>
+    <t>ESTUARINE COASTAL AND SHELF SCIENCE</t>
+  </si>
+  <si>
+    <t>Koerich, G; Costa, GB; Sissini, MN; Ortiz, CL; Canever, BF; Oliveira, W; Tonkin, JD; Horta, PA</t>
+  </si>
+  <si>
+    <t>Physiology, niche characteristics and extreme events: Current and future habitat suitability of a rhodolith-forming species in the Southwestern Atlantic</t>
+  </si>
+  <si>
+    <t>Baines, M; Kelly, N; Reichelt, M; Lacey, C; Pinder, S; Fielding, S; Murphy, E; Trathan, P; Biuw, M; Lindstrom, U; Krafft, BA; Jackson, JA</t>
+  </si>
+  <si>
+    <t>Population abundance of recovering humpback whales Megaptera novaeangliae and other baleen whales in the Scotia Arc, South Atlantic</t>
+  </si>
+  <si>
+    <t>Lobo, AD; Wedekin, LL; Sobral-Souza, T; Le Pendu, Y</t>
+  </si>
+  <si>
+    <t>Potential distribution of Guiana dolphin (Sotalia guianensis): a coastal-estuarine and tropical habitat specialist</t>
+  </si>
+  <si>
+    <t>JOURNAL OF MAMMALOGY</t>
+  </si>
+  <si>
+    <t>Jimenez, LM; Simoes, N; Yanez-Arenas, C</t>
+  </si>
+  <si>
+    <t>Where is the genus Elysia in the western Atlantic? Potential distribution, species richness and representation in marine protected areas</t>
+  </si>
+  <si>
+    <t>Thomas, Z; Turney, C; Allan, R; Colwell, S; Kelly, G; Lister, D; Jones, P; Beswick, M; Alexander, L; Lippmann, T; Herold, N; Jones, R</t>
+  </si>
+  <si>
+    <t>A New Daily Observational Record from Grytviken, South Georgia: Exploring Twentieth-Century Extremes in the South Atlantic</t>
+  </si>
+  <si>
+    <t>JOURNAL OF CLIMATE</t>
+  </si>
+  <si>
+    <t>AMER METEOROLOGICAL SOC</t>
+  </si>
+  <si>
+    <t>Passos, FD; Correa, PVF; Miranda, MS</t>
+  </si>
+  <si>
+    <t>Better Alone Than in Bad Company New Species of Caudofoveate Limifossorid (Mollusca, Aplacophora) Unravels Patterns of Distribution Hidden in the Deep Atlantic</t>
+  </si>
+  <si>
+    <t>FRONTIERS IN MARINE SCIENCE</t>
+  </si>
+  <si>
+    <t>FRONTIERS MEDIA SA</t>
+  </si>
+  <si>
+    <t>Stokes, AW; Catry, P; Matthiopoulos, J; Boldenow, M; Clark, TJ; Guest, A; Marengo, I; Wakefield, ED</t>
+  </si>
+  <si>
+    <t>Combining survey and remotely sensed environmental data to estimate the habitat associations, abundance and distribution of breeding thin-billed prions Pachyptila belcheri and Wilson's storm-petrels Oceanites oceanicus on a South Atlantic tussac island</t>
+  </si>
+  <si>
+    <t>POLAR BIOLOGY</t>
+  </si>
+  <si>
+    <t>Tardin, RH; Simao, SM; Alves, MAS</t>
+  </si>
+  <si>
+    <t>Distribution of Tursiops truncatus in Southeastern Brazil: a Modeling Approach for Summer Sampling</t>
+  </si>
+  <si>
+    <t>NATUREZA &amp; CONSERVACAO</t>
+  </si>
+  <si>
+    <t>ASSOC BRASILEIRA CIENCIA ECOLOGICA E CONSERVACAO</t>
+  </si>
+  <si>
+    <t>Lucifora, LO; Barbini, SA; Di Giacomo, EE; Waessle, JA; Figueroa, DE</t>
+  </si>
+  <si>
+    <t>Estimating the geographic range of a threatened shark in a data-poor region: Cetorhinus maximus in the South Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>CURRENT ZOOLOGY</t>
+  </si>
+  <si>
+    <t>Franca, NFC; Alencar, CERD; Mantelatto, FL; Freire, FAM</t>
+  </si>
+  <si>
+    <t>Filling biogeographic gaps about the shrimp Farfantepenaeus isabelae Tavares &amp; Gusmao, 2016 (Decapoda: Penaeidae) in South America</t>
+  </si>
+  <si>
+    <t>ZOOTAXA</t>
+  </si>
+  <si>
+    <t>MAGNOLIA PRESS</t>
+  </si>
+  <si>
+    <t>Affe H.M.J., Rocha D.S.B., Menezes M., Nunes J.M.C.</t>
+  </si>
+  <si>
+    <t>First record of Navicula pelagica (Bacillariophyta) in the South Atlantic Ocean: The intriguing occurrence of a sea-ice-dwelling species in a tropical estuary</t>
+  </si>
+  <si>
+    <t>Marine Ornithology</t>
+  </si>
+  <si>
+    <t>Evans, BS; Powell, LL; Demarest, DW; Borchert, SM; Greenberg, RS</t>
+  </si>
+  <si>
+    <t>Flock Size Predicts Niche Breadth and Focal Wintering Regions for a Rapidly Declining Boreal-Breeding Passerine, the Rusty Blackbird</t>
+  </si>
+  <si>
+    <t>DIVERSITY-BASEL</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>Kibler, SR; Davenport, ED; Tester, PA; Hardison, DR; Holland, WC; Litaker, RW</t>
+  </si>
+  <si>
+    <t>Gambierdiscus and Fukuyoa species in the greater Caribbean: Regional growth projections for ciguatera-associated dinoflagellates</t>
+  </si>
+  <si>
+    <t>ECOLOGICAL MODELLING</t>
+  </si>
+  <si>
+    <t>Anderson, AB; Assis, J; Batista, MB; Serrao, EA; Guabiroba, HC; Delfino, SDT; Pinheiro, HT; Pimentel, CR; Gomes, LEO; Vilar, CC; Bernardino, AF; Horta, P; Ghisolfi, RD; Joyeux, JC</t>
+  </si>
+  <si>
+    <t>Global warming assessment suggests the endemic Brazilian kelp beds to be an endangered ecosystem</t>
+  </si>
+  <si>
+    <t>Chang, YJ; Sun, CL; Chen, Y; Yeh, SZ; Dinardo, G</t>
+  </si>
+  <si>
+    <t>Habitat suitability analysis and identification of potential fishing grounds for swordfish, Xiphias gladius, in the South Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF REMOTE SENSING</t>
+  </si>
+  <si>
+    <t>TAYLOR &amp; FRANCIS LTD</t>
+  </si>
+  <si>
+    <t>Koerich, G; Assis, J; Costa, GB; Sissini, MN; Serrao, EA; Rorig, LR; Hall-Spencer, JM; Barufi, JB; Horta, PA</t>
+  </si>
+  <si>
+    <t>How experimental physiology and ecological niche modelling can inform the management of marine bioinvasions?</t>
+  </si>
+  <si>
+    <t>SCIENCE OF THE TOTAL ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Ramos, R; Sanz, V; Militao, T; Bried, J; Neves, VC; Biscoito, M; Phillips, RA; Zino, F; Gonzalez-Solis, J</t>
+  </si>
+  <si>
+    <t>Leapfrog migration and habitat preferences of a small oceanic seabird, Bulwer's petrel (Bulweria bulwerii)</t>
+  </si>
+  <si>
+    <t>WILEY-BLACKWELL</t>
+  </si>
+  <si>
+    <t>Pollet I.L., Ronconi R.A., Leonard M.L., Shutler D.</t>
+  </si>
+  <si>
+    <t>Migration routes and stopover areas of leach’s storm petrels oceanodroma leucorhoa</t>
+  </si>
+  <si>
+    <t>American Meteorological Society</t>
+  </si>
+  <si>
+    <t>Chang, YJ; Sun, CL; Chen, Y; Yeh, SZ; DiNardo, G; Su, NJ</t>
+  </si>
+  <si>
+    <t>Modelling the impacts of environmental variation on the habitat suitability of swordfish, Xiphias gladius, in the equatorial Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>ICES JOURNAL OF MARINE SCIENCE</t>
+  </si>
+  <si>
+    <t>Fromentin, JM; Reygondeau, G; Bonhommeau, S; Beaugrand, G</t>
+  </si>
+  <si>
+    <t>Oceanographic changes and exploitation drive the spatio-temporal dynamics of Atlantic bluefin tuna (Thunnus thynnus)</t>
+  </si>
+  <si>
+    <t>Peres, TC; Maier, ELB</t>
+  </si>
+  <si>
+    <t>Rainfall variability in Brazil between 1920 and 2010</t>
+  </si>
+  <si>
+    <t>INTERNATIONAL JOURNAL OF CLIMATOLOGY</t>
+  </si>
+  <si>
+    <t>Haulsee, DE; Breece, MW; Fox, DA; Oliver, MJ</t>
+  </si>
+  <si>
+    <t>Simple is sometimes better: a test of the transferability of species distribution models</t>
+  </si>
+  <si>
+    <t>Gigliotti, ES; Gherardi, DFM; Paes, ET; Souza, RB; Katsuragawa, M</t>
+  </si>
+  <si>
+    <t>Spatial analysis of egg distribution and geographic changes in the spawning habitat of the Brazilian sardine Sardinella brasiliensis</t>
+  </si>
+  <si>
+    <t>Pastor-Prieto, M; Ramos, R; Zajkova, Z; Reyes-Gonzalez, JM; Rivas, ML; Ryan, PG; Gonzalez-Solis, J</t>
+  </si>
+  <si>
+    <t>Spatial ecology, phenological variability and moulting patterns of the Endangered Atlantic petrel Pterodroma incerta</t>
+  </si>
+  <si>
+    <t>ENDANGERED SPECIES RESEARCH</t>
+  </si>
+  <si>
+    <t>Huntley, B; Midgley, GF; Barnard, P; Valdes, PJ</t>
+  </si>
+  <si>
+    <t>Suborbital climatic variability and centres of biological diversity in the Cape region of southern Africa</t>
+  </si>
+  <si>
+    <t>Lakaschus, S; Weber, K; Wania, F; Bruhn, R; Schrems, O</t>
+  </si>
+  <si>
+    <t>The air-sea equilibrium and time trend of hexachlorocyclohexanes in the Atlantic Ocean between the Arctic and Antarctica</t>
+  </si>
+  <si>
+    <t>ENVIRONMENTAL SCIENCE &amp; TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>AMER CHEMICAL SOC</t>
+  </si>
+  <si>
+    <t>Silva, GAR; Antonelli, A; Lendel, A; Moraes, ED; Manfrin, MH</t>
+  </si>
+  <si>
+    <t>The impact of early Quaternary climate change on the diversification and population dynamics of a South American cactus species</t>
+  </si>
+  <si>
+    <t>McDuie, F; Congdon, BC</t>
+  </si>
+  <si>
+    <t>Trans-equatorial migration and non-breeding habitat of tropical shearwaters: implications for modelling pelagic Important Bird Areas</t>
+  </si>
+  <si>
+    <t>Iglecia, MN; Collazo, JA; McKerrow, AJ</t>
+  </si>
+  <si>
+    <t>Use of Occupancy Models to Evaluate Expert Knowledge-based Species-Habitat Relationships</t>
+  </si>
+  <si>
+    <t>AVIAN CONSERVATION AND ECOLOGY</t>
+  </si>
+  <si>
+    <t>RESILIENCE ALLIANCE</t>
+  </si>
+  <si>
+    <t>Bamford, CCG; Warwick-Evans, V; Staniland, IJ; Jackson, JA; Trathan, PN</t>
+  </si>
+  <si>
+    <t>Wintertime overlaps between female Antarctic fur seals (Arctocephalus gazella) and the krill fishery at South Georgia, South Atlantic</t>
+  </si>
+  <si>
+    <t>Mourato, BL; Hazin, F; Bigelow, K; Musyl, M; Carvalho, F; Hazin, H</t>
+  </si>
+  <si>
+    <t>Spatio-temporal trends of sailfish, Istiophorus platypterus catch rates in relation to spawning ground and environmental factors in the equatorial and southwestern Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>Suparta, W; Gusrizal; Kudela, K; Isa, Z</t>
+  </si>
+  <si>
+    <t>A hierarchical Bayesian spatio-temporal model to forecast trapped particle fluxes over the SAA region</t>
+  </si>
+  <si>
+    <t>TERRESTRIAL ATMOSPHERIC AND OCEANIC SCIENCES</t>
+  </si>
+  <si>
+    <t>CHINESE GEOSCIENCE UNION</t>
+  </si>
+  <si>
+    <t>Carvalho, FC; Murie, DJ; Hazin, FHV; Hazin, HG; Leite-Mourato, B; Burgess, GH</t>
+  </si>
+  <si>
+    <t>Spatial predictions of blue shark (Prionace glauca) catch rate and catch probability of juveniles in the Southwest Atlantic</t>
+  </si>
+  <si>
+    <t>Mourato, BL; Hazin, HG; Wor, C; Travassos, P; Arfelli, CA; Amorim, AF; Hazin, FHV</t>
+  </si>
+  <si>
+    <t>Environmental and spatial effects on the size distribution of sailfish in the Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>CIENCIAS MARINAS</t>
+  </si>
+  <si>
+    <t>INST INVESTIGACIONES OCEANOLOGICAS, U A B C</t>
+  </si>
+  <si>
+    <t>Hazin, H; Erzini, K</t>
+  </si>
+  <si>
+    <t>Assessing swordfish distribution in the South Atlantic from spatial predictions</t>
+  </si>
+  <si>
+    <t>FISHERIES RESEARCH</t>
+  </si>
+  <si>
+    <t>Bedrinana-Romano, L; Zerbini, AN; Andriolo, A; Danilewicz, D; Sucunza, F</t>
+  </si>
+  <si>
+    <t>Individual and joint estimation of humpback whale migratory patterns and their environmental drivers in the Southwest Atlantic Ocean</t>
+  </si>
+  <si>
+    <t>SCIENTIFIC REPORTS</t>
+  </si>
+  <si>
+    <t>NATURE PORTFOLIO</t>
+  </si>
+  <si>
+    <t>Portuguese</t>
+  </si>
+  <si>
+    <t>Poursanidis, D; Kougioumoutzis, K; Minasidis, V; Chartosia, N; Kletou, D; Kalogirou, S</t>
+  </si>
+  <si>
+    <t>Uncertainty in Marine Species Distribution Modelling: Trying to Locate Invasion Hotspots for Pterois miles in the Eastern Mediterranean Sea</t>
+  </si>
+  <si>
+    <t>JOURNAL OF MARINE SCIENCE AND ENGINEERING</t>
+  </si>
+  <si>
+    <t>Borges, FO; Guerreiro, M; Santos, CP; Paula, JR; Rosa, R</t>
+  </si>
+  <si>
+    <t>Projecting future climate change impacts on the distribution of the 'Octopus vulgaris species complex'</t>
+  </si>
+  <si>
+    <t>Benemann, VRF; Araujo, LD; Fabbris, AZ; Montone, RC; Petry, MV</t>
+  </si>
+  <si>
+    <t>NESTING DISTRIBUTION OF MASKED BOOBY SULA DACTYLATRA AT TRINDADE ISLAND, WESTERN SOUTH ATLANTIC OCEAN</t>
+  </si>
+  <si>
+    <t>MARINE ORNITHOLOGY</t>
+  </si>
+  <si>
+    <t>AFRICAN SEABIRD GROUP</t>
+  </si>
+  <si>
+    <t>Bamford, CCG; Jackson, JA; Kennedy, AK; Trathan, PN; Staniland, IJ; Andriolo, A; Bedrinana-Romano, L; Carroll, EL; Martin, S; Zerbini, AN</t>
+  </si>
+  <si>
+    <t>Humpback whale (Megaptera novaeangliae) distribution and movements in the vicinity of South Georgia and the South Sandwich Islands Marine Protected Area</t>
+  </si>
+  <si>
+    <t>DEEP-SEA RESEARCH PART II-TOPICAL STUDIES IN OCEANOGRAPHY</t>
+  </si>
+  <si>
+    <t>Maricato, G; Tardin, R; Lodi, L; Wedekin, LL; Daura-Jorge, FG; Maciel, I; Maria, TF; Alves, MAS</t>
+  </si>
+  <si>
+    <t>Identifying suitable areas for common bottlenose dolphin in anthropized waters</t>
+  </si>
+  <si>
+    <t>Biodiversity and conservation of solar-powered sea slugs from the Western Atlantic under climate change scenarios</t>
+  </si>
+  <si>
+    <t>MARINE ECOLOGY-AN EVOLUTIONARY PERSPECTIVE</t>
+  </si>
+  <si>
+    <t>De Wysieck, AM; Irigoyen, AJ; Cortes, F; Bovcon, ND; Milessi, AC; Hozbor, NM; Coller, M; Jaureguizar, AJ</t>
+  </si>
+  <si>
+    <t>Population-scale habitat use by school sharks Galeorhinus galeus (Triakidae) in the Southwest Atlantic: insights from temporally explicit niche modelling and habitat associations</t>
+  </si>
+  <si>
+    <t>Costa, TLA; Petean, FF; Berbel-Filho, WM; Sole-Cava, AM; Mendes, LF; Lima, SMQ</t>
+  </si>
+  <si>
+    <t>Molecular testing of the Sao Francisco River as an ecological filter for the Brazilian large-eyed stingray Hypanus marianae (Dasyatidae, Myliobatiformes)</t>
+  </si>
+  <si>
+    <t>Martinez, A; Acosta, JM; Ferrero, MA; Pastore, FB; Aagesen, L</t>
+  </si>
+  <si>
+    <t>Evolutionary patterns within the New World Clade Polygala sections Clinclinia and Monninopsis (Polygalaceae)</t>
+  </si>
+  <si>
+    <t>PERSPECTIVES IN PLANT ECOLOGY EVOLUTION AND SYSTEMATICS</t>
+  </si>
+  <si>
+    <t>Mendes, CB; Cortez, T; Santos, CSG; Sobral-Souza, T; Santos, AD; Sasaki, DK; Silva, DA; Dottori, M; Andrade, SCS</t>
+  </si>
+  <si>
+    <t>Seascape genetics in a polychaete worm: Disentangling the roles of a biogeographic barrier and environmental factors</t>
+  </si>
+  <si>
+    <t>Liu, HW; Yu, W; Chen, XJ</t>
+  </si>
+  <si>
+    <t>Melting Antarctic Sea Ice Is Yielding Adverse Effects on a Short-Lived Squid Species in the Antarctic Adjacent Waters</t>
+  </si>
+  <si>
+    <t>De Wysiecki, AM; Cortes, F; Jaureguizar, AJ; Barnett, A</t>
+  </si>
+  <si>
+    <t>Potential global distribution of a temperate marine coastal predator: The role of barriers and dispersal corridors on subpopulation connectivity</t>
+  </si>
+  <si>
+    <t>LIMNOLOGY AND OCEANOGRAPHY</t>
+  </si>
+  <si>
+    <t>Prado, JH; Kinas, PG; Pennino, MG; Seyboth, E; Silveira, FRG; Ferreira, EC; Secchi, ER</t>
+  </si>
+  <si>
+    <t>Definition of no-fishing zones and fishing effort limits to reduce franciscana bycatch to sustainable levels in southern Brazil</t>
+  </si>
+  <si>
+    <t>Carman, VG; Mandiola, A; Alemany, D; Dassis, M; Pon, JPS; Prosdocimi, L; de Leon, AP; Mianzan, H; Acha, EM; Rodriguez, D; Favero, M; Copello, S</t>
+  </si>
+  <si>
+    <t>Distribution of megafaunal species in the Southwestern Atlantic: key ecological areas and opportunities for marine conservation</t>
+  </si>
+  <si>
+    <t>Anderson, AB; da Silva, JP; Sorvilo, R; Francini, CLB; Floeter, SR; Barreiros, JP</t>
+  </si>
+  <si>
+    <t>Population expansion of the invasive Pomacentridae Chromis limbata (Valenciennes, 1833) in southern Brazilian coast: long-term monitoring, fundamental niche availability and new records</t>
+  </si>
+  <si>
+    <t>DOBROVOLSKI, SG</t>
+  </si>
+  <si>
+    <t>SOUTH-ATLANTIC SEA-SURFACE TEMPERATURE ANOMALIES AND AIR-SEA INTERACTIONS - STOCHASTIC-MODELS</t>
+  </si>
+  <si>
+    <t>ANNALES GEOPHYSICAE-ATMOSPHERES HYDROSPHERES AND SPACE SCIENCES</t>
+  </si>
+  <si>
+    <t>SPRINGER VERLAG</t>
+  </si>
+  <si>
+    <t>Holzer, M; Primeau, FW</t>
+  </si>
+  <si>
+    <t>Improved constraints on transit time distributions from argon 39: A maximum entropy approach</t>
+  </si>
+  <si>
+    <t>JOURNAL OF GEOPHYSICAL RESEARCH-OCEANS</t>
+  </si>
+  <si>
+    <t>AMER GEOPHYSICAL UNION</t>
+  </si>
+  <si>
+    <t>Cordeiro R.T.S., Carpinelli Á.N., Francini-Filho R.B., de Moura Neves B., Pérez C.D., de Oliveira U., Sumida P., Maranhão H., Monteiro L.H.U., Carneiro P., Kitahara M.V.</t>
+  </si>
+  <si>
+    <t>Neospongodes atlantica, a potential case of an early biological introduction in the Southwestern Atlantic</t>
+  </si>
+  <si>
+    <t>PeerJ</t>
+  </si>
+  <si>
+    <t>PeerJ Inc.</t>
+  </si>
+  <si>
+    <t>Taverna A., Reyna P.B., Giménez D.R., Tatián M.</t>
+  </si>
+  <si>
+    <t>Disembarking in port: Early detection of the ascidian Ascidiella scabra (Müller, 1776) in a SW Atlantic port and forecast of its worldwide environmental suitability</t>
+  </si>
+  <si>
+    <t>Estuarine, Coastal and Shelf Science</t>
+  </si>
+  <si>
+    <t>Academic Press</t>
+  </si>
+  <si>
+    <t>Cuervo P.F., Artigas P., Mas-Coma S., Bargues M.D.</t>
+  </si>
+  <si>
+    <t>West Nile virus in Spain: Forecasting the geographical distribution of risky areas with an ecological niche modelling approach</t>
+  </si>
+  <si>
+    <t>Transboundary and Emerging Diseases</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc</t>
+  </si>
+  <si>
+    <t>Azuaje-Rodríguez R.A., Silva S.M., Carlos C.J.</t>
+  </si>
+  <si>
+    <t>Not going with the flow: Ecological niche of a migratory seabird, the South American Tern Sterna hirundinacea</t>
+  </si>
+  <si>
+    <t>Ecological Modelling</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>Chen P., Chen X.</t>
+  </si>
+  <si>
+    <t>Analysis of habitat distribution of Argentine shortfin squid (Illex argentinus) in the southwest Atlantic Ocean using maximum entropy model</t>
+  </si>
+  <si>
+    <t>Journal of Fisheries of China</t>
+  </si>
+  <si>
+    <t>Kane R.P.</t>
+  </si>
+  <si>
+    <t>Quasi-biennial and quasi-triennial oscillations in the rainfall of northeast Brazil</t>
+  </si>
+  <si>
+    <t>Revista Brasileira de Geofisica</t>
+  </si>
+  <si>
+    <t>Dobrovolski S.G.</t>
+  </si>
+  <si>
+    <t>South atlantic sea surface temperature anomalies and air-sea interactions: Stochastic models</t>
+  </si>
+  <si>
+    <t>Annales Geophysicae</t>
+  </si>
+  <si>
+    <t>Wang, XT; Li, J; Zhang, T</t>
+  </si>
+  <si>
+    <t>A Machine-Learning Model for Zonal Ship Flow Prediction Using AIS Data: A Case Study in the South Atlantic States Region</t>
+  </si>
+  <si>
+    <t>Suparta, W; Gusrizal</t>
+  </si>
+  <si>
+    <t>The application of a hierarchical Bayesian spatiotemporal model for forecasting the SAA trapped particle flux distribution</t>
+  </si>
+  <si>
+    <t>JOURNAL OF EARTH SYSTEM SCIENCE</t>
+  </si>
+  <si>
+    <t>INDIAN ACAD SCIENCES</t>
+  </si>
+  <si>
+    <t>de Oliveira Í. A., Hazin H.G., Hazin F.H.V., Travassos P.E.P., da Silva G.B., Mourato B.L., Carvalho F.</t>
+  </si>
+  <si>
+    <t>Distribution of the blue marlin in the south atlantic and equatorial and potential spatial strategy management [Distribuição do agulhão negro no atlântico sul e equatorial e potencial de estratégia de manejo espacial]</t>
+  </si>
+  <si>
+    <t>Boletim do Instituto de Pesca</t>
+  </si>
+  <si>
+    <t>Instytut Technologii Drewna</t>
+  </si>
+  <si>
+    <t>Iglecia M.N., Collazo J.A., McKerrow A.J.</t>
+  </si>
+  <si>
+    <t>Use of occupancy models to evaluate expert knowledge-based species-habitat relationships [Utilisation de modèles de présence pour évaluer les relations espèceshabitat fondées sur les connaissances d'experts]</t>
+  </si>
+  <si>
+    <t>Avian Conservation and Ecology</t>
+  </si>
+  <si>
+    <t>English; French</t>
+  </si>
+  <si>
+    <t>Journal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -69,9 +1347,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -351,25 +1643,3165 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D99" sqref="D99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H20" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H21" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H25" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H27" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H28" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H35" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H38" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H39" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H40" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H41" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H43" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H48" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H50" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H51" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H52" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H53" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H54" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H55" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>55</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H56" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H57" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H58" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>58</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="H59" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H61" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>61</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H62" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="H64" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>64</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="H65" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H66" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>67</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H68" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H69" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H70" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>70</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H71" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H72" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H73" s="5">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>73</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H74" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H76" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H77" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H78" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H79" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H81" s="5">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H82" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H83" s="5">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>84</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H85" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>85</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H86" s="5">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>86</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H87" s="5">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>87</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H88" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>88</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H89" s="5">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>89</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="H90" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>90</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H91" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H92" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H94" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H95" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H96" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>96</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H97" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H99" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H100" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H101" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>101</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="H102" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>102</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H103" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>103</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>104</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H105" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>105</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H106" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>106</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H107" s="5">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>107</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="H108" s="5">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>108</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="H109" s="6">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>109</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="H110" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>110</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H111" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>111</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="H112" s="5">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G113" s="2"/>
+      <c r="H113" s="5">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>113</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G114" s="2"/>
+      <c r="H114" s="5">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>114</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G115" s="2"/>
+      <c r="H115" s="5">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>115</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H116" s="5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>116</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="H117" s="5">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>117</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H118" s="5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>118</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H119" s="5">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>119</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="H120" s="5">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>120</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="G121" s="2"/>
+      <c r="H121" s="5">
+        <v>2012</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>